--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32293365022077214</v>
+        <v>0.32302385808069306</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30891090091304141</v>
+        <v>0.30919947782404233</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0017069026482852186</v>
+        <v>-0.0016898276287108719</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00014072884494661857</v>
+        <v>0.00014075689805993782</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00074977297217786577</v>
+        <v>-0.00072915539618986433</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00039128744083476267</v>
+        <v>0.00039154866702117915</v>
       </c>
       <c r="H3" s="0">
-        <v>2.1238371340133799e-05</v>
+        <v>2.2095875308363403e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010992953111965732</v>
+        <v>-0.0011025162175083874</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0045793545861114171</v>
+        <v>0.0045793553381808239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30846344657215224</v>
+        <v>0.30781136843838536</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00042755217480265254</v>
+        <v>-0.00067807235589987039</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>4.3023511177694389e-05</v>
+        <v>4.2933006053249553e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-4.0397512259969902e-06</v>
+        <v>-4.3325044206950828e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.4893444957010213e-05</v>
+        <v>2.4693160090091088e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0005951167364406742</v>
+        <v>-0.00059514576424785396</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.6384000672695597e-05</v>
+        <v>-5.7480346239033652e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00041144234339696162</v>
+        <v>-0.00041144236860679584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28177745831533541</v>
+        <v>0.28214474587394078</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0027264593773408622</v>
+        <v>0.0030370782775787776</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0031262357520400658</v>
+        <v>-0.0031355968551764119</v>
       </c>
       <c r="E5" s="0">
-        <v>-6.0489868804085332e-05</v>
+        <v>-6.0748013382638945e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00096714670026821136</v>
+        <v>-0.00097863653046290858</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00098510281525743975</v>
+        <v>-0.00098563429694470471</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00010008851758348007</v>
+        <v>-0.00010067756016386232</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00020536700128894741</v>
+        <v>-0.00020512749434252098</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00031224460412665467</v>
+        <v>-0.00031224912210831013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.36334001208775429</v>
+        <v>0.36342496307109823</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021163544580017978</v>
+        <v>0.021100256859687014</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00010617801118021367</v>
+        <v>-0.00010619380307271246</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.4008905777660437e-05</v>
+        <v>-6.3882323912423856e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.4680002464108221e-05</v>
+        <v>-5.4926040098474192e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0017723301009915538</v>
+        <v>-0.0017777353708719739</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00050960760136631311</v>
+        <v>-0.00050961222694251296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36143529697851012</v>
+        <v>0.36143927347243809</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0019922311444245931</v>
+        <v>-0.0020075126454683285</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00019367293866291442</v>
+        <v>-0.00018982193930046419</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0012063311097475675</v>
+        <v>-0.001212035563656326</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00069356668653807656</v>
+        <v>0.0006950348481490643</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.3913455279905878e-05</v>
+        <v>9.3820990039109593e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0016150883861684173</v>
+        <v>0.0016150895666742215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.26531398739517531</v>
+        <v>0.2659459813734798</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.023647978396337612</v>
+        <v>-0.023519605164103778</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.4902713517668307e-05</v>
+        <v>5.4927135310089892e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00040975290241837661</v>
+        <v>-0.00040975135487218906</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.4386140748608156e-05</v>
+        <v>1.4420778755051014e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0012352626673164907</v>
+        <v>0.0012377999295085905</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00054694136576460828</v>
+        <v>0.0005469371480167351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.25962669967565283</v>
+        <v>0.2601711448942538</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0012905613355581559</v>
+        <v>0.0012966781285655672</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0023084454512953801</v>
+        <v>-0.0023147939383170823</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0062798866180705506</v>
+        <v>-0.0062839449705673241</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00061980071227077729</v>
+        <v>0.00061667023781129154</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00019780732131333272</v>
+        <v>-0.00019736592570409703</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00023869046207293399</v>
+        <v>-0.0002385430470102691</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00044902366161980733</v>
+        <v>0.0004490245641920465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.4004637251939005</v>
+        <v>0.40053176296202919</v>
       </c>
       <c r="C10" s="0">
-        <v>0.047428203710731698</v>
+        <v>0.047408352818700303</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>2.6182317765857062e-05</v>
+        <v>2.6171642466790374e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00039710285790466</v>
+        <v>-0.00039715574072223084</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>2.6907745298253982e-05</v>
+        <v>2.6902045027001622e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00045870397292428609</v>
+        <v>-0.00045382514166841239</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023735494230643847</v>
+        <v>-0.0023788044561584144</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00090925225817728439</v>
+        <v>0.00090925855688039903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.37656050939388586</v>
+        <v>0.37636991322927116</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0017554820626082743</v>
+        <v>-0.0017306195834714908</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0006403762255902803</v>
+        <v>0.00064324502847167041</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.00030050132706034571</v>
+        <v>-0.00031537052722860744</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0014493102117525206</v>
+        <v>0.0014527552225283926</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00013646746757526058</v>
+        <v>0.00013551228796078899</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0047132836295386135</v>
+        <v>-0.0047245375951363369</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.013843185261806557</v>
+        <v>0.013843182496157569</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.31618188738071978</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.030710080589056766</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>8.1031423602676066e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.2332461344990269e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-5.5451583596448429e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00069756892182624953</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0033268278891097625</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,7 +397,7 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.32302385808069306</v>
+        <v>0.3230529220950949</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30919947782404233</v>
+        <v>0.30894329221859484</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0016898276287108719</v>
+        <v>-0.0017071360669763714</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00014075689805993782</v>
+        <v>0.00014071253468753394</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00072915539618986433</v>
+        <v>-0.00074345847794017388</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00039154866702117915</v>
+        <v>0.00039230050909186111</v>
       </c>
       <c r="H3" s="0">
-        <v>2.2095875308363403e-05</v>
+        <v>2.1466224748715556e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0011025162175083874</v>
+        <v>-0.0011073101007697337</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0045793553381808239</v>
+        <v>0.0045793561687519357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30781136843838536</v>
+        <v>0.30810660708313331</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00067807235589987039</v>
+        <v>-0.00056803996840262491</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>4.2933006053249553e-05</v>
+        <v>4.2959351487790418e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-4.3325044206950828e-06</v>
+        <v>-4.2373933217203144e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>2.4693160090091088e-05</v>
+        <v>2.4562219114839824e-05</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00059514576424785396</v>
+        <v>-0.00059770872655539209</v>
       </c>
       <c r="J4" s="0">
-        <v>-5.7480346239033652e-05</v>
+        <v>-5.9326757187703855e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00041144236860679584</v>
+        <v>-0.00041147607700486866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28214474587394078</v>
+        <v>0.28146885455332349</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0030370782775787776</v>
+        <v>0.0027688032497528475</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0031355968551764119</v>
+        <v>-0.0031177347695775636</v>
       </c>
       <c r="E5" s="0">
-        <v>-6.0748013382638945e-05</v>
+        <v>-6.1053331073060581e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00097863653046290858</v>
+        <v>-0.0009666833807351026</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00098563429694470471</v>
+        <v>-0.00098984647603460774</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00010067756016386232</v>
+        <v>-0.00010013185560391661</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00020512749434252098</v>
+        <v>-0.00020498299404211979</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00031224912210831013</v>
+        <v>-0.00031224154899189838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.36342496307109823</v>
+        <v>0.36392838794106092</v>
       </c>
       <c r="C6" s="0">
-        <v>0.021100256859687014</v>
+        <v>0.021366940348191643</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00010619380307271246</v>
+        <v>-0.00010620236296334248</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.3882323912423856e-05</v>
+        <v>-6.3618651332521215e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-5.4926040098474192e-05</v>
+        <v>-5.462891941617099e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0017777353708719739</v>
+        <v>-0.0017767422202067311</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00050961222694251296</v>
+        <v>-0.00050962237986018621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.36143927347243809</v>
+        <v>0.36191428144009141</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0020075126454683285</v>
+        <v>-0.0020051850398622962</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00018982193930046419</v>
+        <v>-0.00018280211558750618</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.001212035563656326</v>
+        <v>-0.0011987845337931059</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0006950348481490643</v>
+        <v>0.00069720712126576797</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>9.3820990039109593e-05</v>
+        <v>9.3692133284327568e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0016150895666742215</v>
+        <v>0.0016150896250138325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2659459813734798</v>
+        <v>0.26526467274026533</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.023519605164103778</v>
+        <v>-0.023827271028295589</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>5.4927135310089892e-05</v>
+        <v>5.5019145721145989e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00040975135487218906</v>
+        <v>-0.00040997449352802678</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>1.4420778755051014e-05</v>
+        <v>1.4570420638990432e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0012377999295085905</v>
+        <v>0.0012416336645327643</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.0005469371480167351</v>
+        <v>0.00054693753816470458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2601711448942538</v>
+        <v>0.2593065937818444</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0012966781285655672</v>
+        <v>0.0012635155875271038</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0023147939383170823</v>
+        <v>-0.0023220894727444723</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0062839449705673241</v>
+        <v>-0.0062943248466556306</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00061667023781129154</v>
+        <v>0.00061995174220863449</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00019736592570409703</v>
+        <v>-0.00019776304273978068</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0002385430470102691</v>
+        <v>-0.00023812423636792693</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.0004490245641920465</v>
+        <v>0.00044902828097426184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.40053176296202919</v>
+        <v>0.40077673542619674</v>
       </c>
       <c r="C10" s="0">
-        <v>0.047408352818700303</v>
+        <v>0.047681054440727691</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>2.6171642466790374e-05</v>
+        <v>2.6029630109948547e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00039715574072223084</v>
+        <v>-0.00039988772385011963</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>2.6902045027001622e-05</v>
+        <v>2.6864598829355578e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00045382514166841239</v>
+        <v>-0.00045909143478641115</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0023788044561584144</v>
+        <v>-0.0023364716427952572</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00090925855688039903</v>
+        <v>0.0009092467970243101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.37636991322927116</v>
+        <v>0.37556967636228156</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0017306195834714908</v>
+        <v>-0.0018856012939917355</v>
       </c>
       <c r="E11" s="0">
-        <v>0.00064324502847167041</v>
+        <v>0.00063348505977180094</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.00031537052722860744</v>
+        <v>-0.00040357702416119059</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0014527552225283926</v>
+        <v>0.0014620696697160978</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00013551228796078899</v>
+        <v>0.00013172561757449121</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0047245375951363369</v>
+        <v>-0.0047412228199639273</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.013843182496157569</v>
+        <v>0.013843186209009872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.31618188738071978</v>
+        <v>0.31007461363666045</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.030710080589056766</v>
+        <v>-0.042191237765024335</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>8.1031423602676066e-05</v>
+        <v>8.9604248899903188e-05</v>
       </c>
       <c r="F12" s="0">
-        <v>1.2332461344990269e-05</v>
+        <v>0.0015069793612423239</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-5.5451583596448429e-06</v>
+        <v>0.00038164579542502631</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00069756892182624953</v>
+        <v>0.0042236943347747011</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0033268278891097625</v>
+        <v>-0.0033248491838273608</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.23306120588627238</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.053948007370214685</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0055937734329710798</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0020623042866923557</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0012572559194679647</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00058947937421794012</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-1.3523059145935463e-05</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.051107837101030451</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.11667162652280963</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.17728326760259847</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>3.6524010462781193e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-1.3851581582143309e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-6.5847857633928659e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.022062639810332806</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>4.713901058495118e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr3_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.3230529220950949</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.30894329221859484</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30810660708313331</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28146885455332349</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.36392838794106092</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.36191428144009141</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.26526467274026533</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.2593065937818444</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.40077673542619674</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.37556967636228156</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.31007461363666045</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.23306120588627238</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.11667162652280963</v>
+        <v>0.16402987448664705</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.17728326760259847</v>
+        <v>-0.15383391966555149</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>3.6524010462781193e-05</v>
+        <v>2.1984029278033131e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-1.3851581582143309e-05</v>
+        <v>-0.0004562931857496396</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-6.5847857633928659e-06</v>
+        <v>-0.0028446875432838821</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.022062639810332806</v>
+        <v>-0.010474130186838725</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>4.713901058495118e-06</v>
+        <v>0.00051718628201519179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.24636495362852323</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.10430956757516796</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0039674858898827983</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0066059185728278976</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.011392433974933879</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.032763547717775759</v>
       </c>
     </row>
   </sheetData>
